--- a/git提交步骤.xlsx
+++ b/git提交步骤.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProJectAttach\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitspace\gitDemo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{46645C03-D19E-4A14-B273-F65210C94CAC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0F8043B0-4CBA-49F4-B985-252144979EBF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17530" windowHeight="5920" activeTab="1" xr2:uid="{EC6D38D9-BAFE-4FCC-8737-0390D70C3C24}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17532" windowHeight="5916" activeTab="1" xr2:uid="{EC6D38D9-BAFE-4FCC-8737-0390D70C3C24}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="中电" sheetId="1" r:id="rId1"/>
     <sheet name="自学" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,10 +27,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
-  <si>
-    <t>git fatch origin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
   <si>
     <t>gitk --all</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +298,9 @@
   <si>
     <t>git add branchDemo/Java-test/src/com/test/common/socket/*   也可以git add . 提交所有新的代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch origin</t>
   </si>
 </sst>
 </file>
@@ -822,91 +821,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B54639F-AEAD-4310-8821-D4494A3DA340}">
   <dimension ref="B2:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -921,277 +920,280 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E29AAF-D895-4D15-BAE1-62785CF5366C}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="9" t="s">
+      <c r="B56" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
+    <row r="57" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>63</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="E59" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
